--- a/Поиск результата.xlsx
+++ b/Поиск результата.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ВПР" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="68">
   <si>
     <t>ФИО сотрудника</t>
   </si>
@@ -208,6 +208,39 @@
   </si>
   <si>
     <t>Список сотрудников из отчета</t>
+  </si>
+  <si>
+    <t>Работодатель</t>
+  </si>
+  <si>
+    <t>Работодатель 1</t>
+  </si>
+  <si>
+    <t>Работодатель 2</t>
+  </si>
+  <si>
+    <t>Работодатель 3</t>
+  </si>
+  <si>
+    <t>Работодатель 4</t>
+  </si>
+  <si>
+    <t>Работодатель 5</t>
+  </si>
+  <si>
+    <t>Работодатель 6</t>
+  </si>
+  <si>
+    <t>Работодатель 7</t>
+  </si>
+  <si>
+    <t>Работодатель 8</t>
+  </si>
+  <si>
+    <t>Работодатель 9</t>
+  </si>
+  <si>
+    <t>Работодатель 10</t>
   </si>
 </sst>
 </file>
@@ -745,7 +778,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:M28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
@@ -1174,10 +1207,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:L8"/>
+  <dimension ref="B1:L16"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1185,7 +1218,7 @@
     <col min="1" max="1" width="3.109375" customWidth="1"/>
     <col min="2" max="2" width="15.5546875" customWidth="1"/>
     <col min="3" max="11" width="12.6640625" customWidth="1"/>
-    <col min="12" max="12" width="13.33203125" customWidth="1"/>
+    <col min="12" max="12" width="15.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:12" ht="21" x14ac:dyDescent="0.4">
@@ -1273,21 +1306,112 @@
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C8" s="9">
         <f>HLOOKUP(B8,C3:L4,2,0)</f>
+        <v>272235</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B11" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B12" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="9">
+        <v>137781</v>
+      </c>
+      <c r="D12" s="9">
+        <v>372146</v>
+      </c>
+      <c r="E12" s="9">
+        <v>248246</v>
+      </c>
+      <c r="F12" s="9">
+        <v>242661</v>
+      </c>
+      <c r="G12" s="9">
+        <v>108295</v>
+      </c>
+      <c r="H12" s="9">
         <v>475407</v>
+      </c>
+      <c r="I12" s="9">
+        <v>272235</v>
+      </c>
+      <c r="J12" s="9">
+        <v>221787</v>
+      </c>
+      <c r="K12" s="9">
+        <v>488411</v>
+      </c>
+      <c r="L12" s="9">
+        <v>400837</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B15" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B16" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C16" s="9">
+        <f>HLOOKUP(B16,C11:L12,2,0)</f>
+        <v>272235</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
-  <dataValidations count="1">
+  <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B8">
       <formula1>$C$3:$L$3</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B16">
+      <formula1>$C$11:$L$11</formula1>
+    </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Поиск результата.xlsx
+++ b/Поиск результата.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="ВПР" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="70">
   <si>
     <t>ФИО сотрудника</t>
   </si>
@@ -241,6 +241,12 @@
   </si>
   <si>
     <t>Работодатель 10</t>
+  </si>
+  <si>
+    <t>Зарплата</t>
+  </si>
+  <si>
+    <t>прод</t>
   </si>
 </sst>
 </file>
@@ -1209,8 +1215,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L16"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1350,7 +1356,7 @@
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
-        <v>25</v>
+        <v>68</v>
       </c>
       <c r="C12" s="9">
         <v>137781</v>
@@ -1420,7 +1426,7 @@
   <dimension ref="A2:U20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2065,7 +2071,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
-  <dataValidations disablePrompts="1" count="3">
+  <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B18">
       <formula1>$B$4:$B$15</formula1>
     </dataValidation>
@@ -2083,10 +2089,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:U20"/>
+  <dimension ref="A2:U60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A61" sqref="A61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2704,7 +2710,7 @@
         <v>51</v>
       </c>
       <c r="B18" s="22" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2712,7 +2718,7 @@
         <v>52</v>
       </c>
       <c r="B19" s="22">
-        <v>2019</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2721,7 +2727,12 @@
       </c>
       <c r="B20" s="24">
         <f ca="1">OFFSET(B3,MATCH(B18,B4:B15,0),MATCH(B19,C3:H3,0))</f>
-        <v>143393</v>
+        <v>77648</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
